--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dll1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dll1</t>
+  </si>
+  <si>
+    <t>Notch3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dll1</t>
-  </si>
-  <si>
-    <t>Notch3</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.10993833333333</v>
+        <v>16.58130233333334</v>
       </c>
       <c r="H2">
-        <v>39.329815</v>
+        <v>49.74390700000001</v>
       </c>
       <c r="I2">
-        <v>0.7359543949389751</v>
+        <v>0.6205214785234227</v>
       </c>
       <c r="J2">
-        <v>0.7359543949389752</v>
+        <v>0.6205214785234225</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N2">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q2">
-        <v>227.1286765297278</v>
+        <v>125.6820655629748</v>
       </c>
       <c r="R2">
-        <v>2044.15808876755</v>
+        <v>1131.138590066773</v>
       </c>
       <c r="S2">
-        <v>0.1333085297150551</v>
+        <v>0.04258730606922577</v>
       </c>
       <c r="T2">
-        <v>0.1333085297150551</v>
+        <v>0.04258730606922576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.10993833333333</v>
+        <v>16.58130233333334</v>
       </c>
       <c r="H3">
-        <v>39.329815</v>
+        <v>49.74390700000001</v>
       </c>
       <c r="I3">
-        <v>0.7359543949389751</v>
+        <v>0.6205214785234227</v>
       </c>
       <c r="J3">
-        <v>0.7359543949389752</v>
+        <v>0.6205214785234225</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P3">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q3">
-        <v>86.40078201708722</v>
+        <v>109.2787358746859</v>
       </c>
       <c r="R3">
-        <v>777.6070381537851</v>
+        <v>983.5086228721732</v>
       </c>
       <c r="S3">
-        <v>0.05071117127484932</v>
+        <v>0.03702904587625061</v>
       </c>
       <c r="T3">
-        <v>0.05071117127484932</v>
+        <v>0.0370290458762506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.10993833333333</v>
+        <v>16.58130233333334</v>
       </c>
       <c r="H4">
-        <v>39.329815</v>
+        <v>49.74390700000001</v>
       </c>
       <c r="I4">
-        <v>0.7359543949389751</v>
+        <v>0.6205214785234227</v>
       </c>
       <c r="J4">
-        <v>0.7359543949389752</v>
+        <v>0.6205214785234225</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N4">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O4">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P4">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q4">
-        <v>938.9186501945173</v>
+        <v>1593.163480356263</v>
       </c>
       <c r="R4">
-        <v>8450.267851750656</v>
+        <v>14338.47132320637</v>
       </c>
       <c r="S4">
-        <v>0.5510790917812305</v>
+        <v>0.5398426613401627</v>
       </c>
       <c r="T4">
-        <v>0.5510790917812304</v>
+        <v>0.5398426613401626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.10993833333333</v>
+        <v>16.58130233333334</v>
       </c>
       <c r="H5">
-        <v>39.329815</v>
+        <v>49.74390700000001</v>
       </c>
       <c r="I5">
-        <v>0.7359543949389751</v>
+        <v>0.6205214785234227</v>
       </c>
       <c r="J5">
-        <v>0.7359543949389752</v>
+        <v>0.6205214785234225</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N5">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P5">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q5">
-        <v>1.457759592975</v>
+        <v>3.135507689931001</v>
       </c>
       <c r="R5">
-        <v>13.119836336775</v>
+        <v>28.21956920937901</v>
       </c>
       <c r="S5">
-        <v>0.0008556021678402167</v>
+        <v>0.00106246523778362</v>
       </c>
       <c r="T5">
-        <v>0.0008556021678402167</v>
+        <v>0.00106246523778362</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.675882</v>
       </c>
       <c r="I6">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="J6">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N6">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q6">
-        <v>9.678175721904443</v>
+        <v>4.234253481533111</v>
       </c>
       <c r="R6">
-        <v>87.10358149714</v>
+        <v>38.108281333798</v>
       </c>
       <c r="S6">
-        <v>0.005680407227848032</v>
+        <v>0.001434774708587048</v>
       </c>
       <c r="T6">
-        <v>0.005680407227848032</v>
+        <v>0.001434774708587048</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.675882</v>
       </c>
       <c r="I7">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="J7">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P7">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q7">
         <v>3.681622081577555</v>
@@ -883,10 +883,10 @@
         <v>33.134598734198</v>
       </c>
       <c r="S7">
-        <v>0.002160852756069079</v>
+        <v>0.001247515830656056</v>
       </c>
       <c r="T7">
-        <v>0.002160852756069079</v>
+        <v>0.001247515830656056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>1.675882</v>
       </c>
       <c r="I8">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="J8">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N8">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O8">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P8">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q8">
-        <v>40.00824477118155</v>
+        <v>53.67399066153799</v>
       </c>
       <c r="R8">
-        <v>360.074202940634</v>
+        <v>483.0659159538419</v>
       </c>
       <c r="S8">
-        <v>0.02348202071361159</v>
+        <v>0.01818740532327053</v>
       </c>
       <c r="T8">
-        <v>0.02348202071361159</v>
+        <v>0.01818740532327053</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>1.675882</v>
       </c>
       <c r="I9">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="J9">
-        <v>0.03135973874525266</v>
+        <v>0.02090549052511678</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N9">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P9">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q9">
-        <v>0.06211656632999998</v>
+        <v>0.105635870106</v>
       </c>
       <c r="R9">
-        <v>0.5590490969699999</v>
+        <v>0.950722830954</v>
       </c>
       <c r="S9">
-        <v>3.645804772395694E-05</v>
+        <v>3.579466260314632E-05</v>
       </c>
       <c r="T9">
-        <v>3.645804772395694E-05</v>
+        <v>3.579466260314632E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.052099666666667</v>
+        <v>9.581631</v>
       </c>
       <c r="H10">
-        <v>12.156299</v>
+        <v>28.744893</v>
       </c>
       <c r="I10">
-        <v>0.2274732712381756</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="J10">
-        <v>0.2274732712381757</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N10">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q10">
-        <v>70.20231606402557</v>
+        <v>72.626332439603</v>
       </c>
       <c r="R10">
-        <v>631.82084457623</v>
+        <v>653.6369919564271</v>
       </c>
       <c r="S10">
-        <v>0.04120381309870375</v>
+        <v>0.02460939700852498</v>
       </c>
       <c r="T10">
-        <v>0.04120381309870374</v>
+        <v>0.02460939700852498</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.052099666666667</v>
+        <v>9.581631</v>
       </c>
       <c r="H11">
-        <v>12.156299</v>
+        <v>28.744893</v>
       </c>
       <c r="I11">
-        <v>0.2274732712381756</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="J11">
-        <v>0.2274732712381757</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.771439</v>
       </c>
       <c r="O11">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P11">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q11">
-        <v>26.70528046047345</v>
+        <v>63.147544279003</v>
       </c>
       <c r="R11">
-        <v>240.347524144261</v>
+        <v>568.327898511027</v>
       </c>
       <c r="S11">
-        <v>0.01567411798548454</v>
+        <v>0.02139751430471504</v>
       </c>
       <c r="T11">
-        <v>0.01567411798548454</v>
+        <v>0.02139751430471504</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.052099666666667</v>
+        <v>9.581631</v>
       </c>
       <c r="H12">
-        <v>12.156299</v>
+        <v>28.744893</v>
       </c>
       <c r="I12">
-        <v>0.2274732712381756</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="J12">
-        <v>0.2274732712381757</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N12">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O12">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P12">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q12">
-        <v>290.2067006529515</v>
+        <v>920.6215702829369</v>
       </c>
       <c r="R12">
-        <v>2611.860305876563</v>
+        <v>8285.594132546432</v>
       </c>
       <c r="S12">
-        <v>0.1703308854196512</v>
+        <v>0.3119521660624327</v>
       </c>
       <c r="T12">
-        <v>0.1703308854196512</v>
+        <v>0.3119521660624327</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.052099666666667</v>
+        <v>9.581631</v>
       </c>
       <c r="H13">
-        <v>12.156299</v>
+        <v>28.744893</v>
       </c>
       <c r="I13">
-        <v>0.2274732712381756</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="J13">
-        <v>0.2274732712381757</v>
+        <v>0.3585730309514606</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N13">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P13">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q13">
-        <v>0.450573222435</v>
+        <v>1.811876840469</v>
       </c>
       <c r="R13">
-        <v>4.055159001914999</v>
+        <v>16.306891564221</v>
       </c>
       <c r="S13">
-        <v>0.0002644547343361228</v>
+        <v>0.0006139535757878792</v>
       </c>
       <c r="T13">
-        <v>0.0002644547343361228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.09285466666666665</v>
-      </c>
-      <c r="H14">
-        <v>0.278564</v>
-      </c>
-      <c r="I14">
-        <v>0.00521259507759649</v>
-      </c>
-      <c r="J14">
-        <v>0.005212595077596491</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>17.32492333333333</v>
-      </c>
-      <c r="N14">
-        <v>51.97477</v>
-      </c>
-      <c r="O14">
-        <v>0.1811369435820938</v>
-      </c>
-      <c r="P14">
-        <v>0.1811369435820938</v>
-      </c>
-      <c r="Q14">
-        <v>1.608699981142222</v>
-      </c>
-      <c r="R14">
-        <v>14.47829983028</v>
-      </c>
-      <c r="S14">
-        <v>0.0009441935404868955</v>
-      </c>
-      <c r="T14">
-        <v>0.0009441935404868954</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.09285466666666665</v>
-      </c>
-      <c r="H15">
-        <v>0.278564</v>
-      </c>
-      <c r="I15">
-        <v>0.00521259507759649</v>
-      </c>
-      <c r="J15">
-        <v>0.005212595077596491</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>6.590479666666667</v>
-      </c>
-      <c r="N15">
-        <v>19.771439</v>
-      </c>
-      <c r="O15">
-        <v>0.06890531753540824</v>
-      </c>
-      <c r="P15">
-        <v>0.06890531753540823</v>
-      </c>
-      <c r="Q15">
-        <v>0.6119567926217777</v>
-      </c>
-      <c r="R15">
-        <v>5.507611133596</v>
-      </c>
-      <c r="S15">
-        <v>0.0003591755190052921</v>
-      </c>
-      <c r="T15">
-        <v>0.0003591755190052921</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.09285466666666665</v>
-      </c>
-      <c r="H16">
-        <v>0.278564</v>
-      </c>
-      <c r="I16">
-        <v>0.00521259507759649</v>
-      </c>
-      <c r="J16">
-        <v>0.005212595077596491</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>71.61884566666667</v>
-      </c>
-      <c r="N16">
-        <v>214.856537</v>
-      </c>
-      <c r="O16">
-        <v>0.7487951638999665</v>
-      </c>
-      <c r="P16">
-        <v>0.7487951638999663</v>
-      </c>
-      <c r="Q16">
-        <v>6.650144041429778</v>
-      </c>
-      <c r="R16">
-        <v>59.851296372868</v>
-      </c>
-      <c r="S16">
-        <v>0.003903165985473022</v>
-      </c>
-      <c r="T16">
-        <v>0.003903165985473022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.09285466666666665</v>
-      </c>
-      <c r="H17">
-        <v>0.278564</v>
-      </c>
-      <c r="I17">
-        <v>0.00521259507759649</v>
-      </c>
-      <c r="J17">
-        <v>0.005212595077596491</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.111195</v>
-      </c>
-      <c r="N17">
-        <v>0.333585</v>
-      </c>
-      <c r="O17">
-        <v>0.001162574982531578</v>
-      </c>
-      <c r="P17">
-        <v>0.001162574982531577</v>
-      </c>
-      <c r="Q17">
-        <v>0.01032497466</v>
-      </c>
-      <c r="R17">
-        <v>0.09292477193999998</v>
-      </c>
-      <c r="S17">
-        <v>6.060032631280927E-06</v>
-      </c>
-      <c r="T17">
-        <v>6.060032631280927E-06</v>
+        <v>0.0006139535757878792</v>
       </c>
     </row>
   </sheetData>
